--- a/real_data_sets/methods_coefficients/yeast_coefficients.xlsx
+++ b/real_data_sets/methods_coefficients/yeast_coefficients.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>AS</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>k=10</t>
+  </si>
+  <si>
+    <t>Cluster Number</t>
   </si>
 </sst>
 </file>
@@ -60,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -116,8 +119,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,12 +435,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
